--- a/data/case1/5/Qlm2_14.xlsx
+++ b/data/case1/5/Qlm2_14.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.2652955371681287</v>
+        <v>-0.1621188509149718</v>
       </c>
       <c r="B1" s="0">
-        <v>0.2650643566487858</v>
+        <v>0.16204842881005987</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.15757024421564214</v>
+        <v>-0.13994738937956885</v>
       </c>
       <c r="B2" s="0">
-        <v>0.15716182952813984</v>
+        <v>0.13962190436666777</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.10746004429930167</v>
+        <v>-0.097841229898975257</v>
       </c>
       <c r="B3" s="0">
-        <v>0.10710145628425849</v>
+        <v>0.097487606958537754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.099101456342598482</v>
+        <v>-0.089487607061844443</v>
       </c>
       <c r="B4" s="0">
-        <v>0.098729344154232734</v>
+        <v>0.089159728343254585</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.095729344187107657</v>
+        <v>-0.086159728401002944</v>
       </c>
       <c r="B5" s="0">
-        <v>0.094472028218731019</v>
+        <v>0.085054826246497406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.015424689478862774</v>
+        <v>0.014116777823094395</v>
       </c>
       <c r="B6" s="0">
-        <v>0.015320991812654228</v>
+        <v>-0.014159910203366266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0053209918941812262</v>
+        <v>0.024159910058167533</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0053084558841582918</v>
+        <v>-0.024169615862472238</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.004691544033962991</v>
+        <v>0.034169615719868318</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0046959487536124556</v>
+        <v>-0.034229529377608259</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029626571872258367</v>
+        <v>0.036229529324243614</v>
       </c>
       <c r="B9" s="0">
-        <v>0.029397894561307591</v>
+        <v>-0.036303580414142722</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027397894599914707</v>
+        <v>-0.013640906516583229</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027382796822589484</v>
+        <v>0.013641161932135049</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024382796867307377</v>
+        <v>-0.010641161989101811</v>
       </c>
       <c r="B11" s="0">
-        <v>0.02435715755037382</v>
+        <v>0.010640788098656095</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020857157598799692</v>
+        <v>-0.0071407881612453039</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020667040348516519</v>
+        <v>0.0071355221119850931</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017167040400055456</v>
+        <v>-0.003635522176233863</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017080492959634874</v>
+        <v>0.0036349277354759124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090804930380450344</v>
+        <v>0.0043650721534316261</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090522668328372191</v>
+        <v>-0.0043708690414856477</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080522668715099499</v>
+        <v>0.0053708690032578943</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080340397204139435</v>
+        <v>-0.0053843114815688153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060340397654283784</v>
+        <v>0.0073843114335963023</v>
       </c>
       <c r="B16" s="0">
-        <v>0.006003417179431203</v>
+        <v>-0.0074615955802648237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040034172252880751</v>
+        <v>-0.0040028947180967833</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999423798727</v>
+        <v>0.0039999999328257374</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.10149411246962003</v>
+        <v>-0.016101039493921832</v>
       </c>
       <c r="B18" s="0">
-        <v>0.10124329980640923</v>
+        <v>0.016090539803762738</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.026920542506501111</v>
+        <v>-0.012090539846648429</v>
       </c>
       <c r="B19" s="0">
-        <v>0.026666277128105875</v>
+        <v>0.012015883184206988</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080168083834006865</v>
+        <v>-0.0080158832305201599</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080057242958222474</v>
+        <v>0.0080055519057573576</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057243261930608</v>
+        <v>-0.0040055519525772354</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999694062538</v>
+        <v>0.0039999999527751129</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045701785260757077</v>
+        <v>-0.037780674522966962</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045491599693200158</v>
+        <v>0.037563503716903313</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040491599732651373</v>
+        <v>-0.011764393789523098</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097541719850582</v>
+        <v>0.011593161591165746</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097541848890899</v>
+        <v>-0.020096546120915271</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999869349416</v>
+        <v>0.019999999770527133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.077047338774956842</v>
+        <v>-0.09717160413232051</v>
       </c>
       <c r="B25" s="0">
-        <v>0.07696508756509246</v>
+        <v>0.097052927068888906</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.074465087604419722</v>
+        <v>-0.094552927139629261</v>
       </c>
       <c r="B26" s="0">
-        <v>0.074360824770820955</v>
+        <v>0.094398853211298928</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.071860824812075563</v>
+        <v>-0.0918988532865046</v>
       </c>
       <c r="B27" s="0">
-        <v>0.071253993464270859</v>
+        <v>0.090978483190872428</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.06925399351062822</v>
+        <v>-0.0889784832836229</v>
       </c>
       <c r="B28" s="0">
-        <v>0.068848574211399338</v>
+        <v>0.088348594054735941</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.061848574292121761</v>
+        <v>-0.081348594215503667</v>
       </c>
       <c r="B29" s="0">
-        <v>0.061738894810747347</v>
+        <v>0.081166550185327146</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0017388951994714574</v>
+        <v>-0.021166550903167991</v>
       </c>
       <c r="B30" s="0">
-        <v>0.0016797376291073363</v>
+        <v>0.021021455585731541</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022531671971095</v>
+        <v>-0.014021455759090529</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001093406948328</v>
+        <v>0.014000782822897406</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040010935085135202</v>
+        <v>-0.0040007830280366363</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999328372837</v>
+        <v>0.0039999998568518436</v>
       </c>
     </row>
   </sheetData>
